--- a/empinfo/SooBim.xlsx
+++ b/empinfo/SooBim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,11 +468,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cabinet</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -483,11 +483,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>heater</t>
+          <t>refrigerator</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -498,13 +498,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>blinder</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>FALSE</t>
         </is>
